--- a/loaded_influencer_data/laetitiabm/laetitiabm_video.xlsx
+++ b/loaded_influencer_data/laetitiabm/laetitiabm_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7276502397482978578</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700000</v>
+        <v>1800000</v>
       </c>
       <c r="C2" t="n">
-        <v>160500</v>
+        <v>160700</v>
       </c>
       <c r="D2" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,23 +528,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Produits pour se débarasser de l’acné du dos, comme vous pouvez le voir j’ai encore des cicatrices 🙃🫧</t>
+          <t>뒤에서 여드름을 없애는 제품, 보시다시피 아직 흉터가 있습니다. 🙃🫧#soindelapeau #skincare #soinducorps</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.472823529411764</v>
+        <v>8.957777777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>9.441176470588236</v>
+        <v>8.927777777777777</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03164705882352942</v>
+        <v>0.03</v>
       </c>
       <c r="L2" t="n">
-        <v>3.923529411764706</v>
+        <v>3.705555555555556</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,2440 +558,2484 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laetitiabm/photo/7489514187798973704</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>향기 버전 그리고 더 많은 것이 있습니다 #bonplan #bonplanbeaute #tipsforgirls #bonplanbeauté</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1.68697282099344</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.452671040299906</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2343017806935332</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1874414245548266</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laetitiabm/video/7489426378308259079</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1149</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>향기 버전 그리고 더 많은 것이 있습니다 #bonplan #bonplanbeaute #tipsforgirls #bonplanbeauté</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.349869451697128</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.349869451697128</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2610966057441254</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laetitiabm/video/7488451394085784850</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>713</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>센텔라 아시아티카 및 시카 제품은 재생 및 진정 특성으로 인해 여드름 흉터를 줄이는 데 특히 효과적입니다. 🤍</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.207573632538569</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.366058906030855</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8415147265077139</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.262272089761571</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laetitiabm/video/7488042900022922514</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1368</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>🔎 콜라겐 마스크는 지방이 깊이 침투하지 않기 때문에 콜라겐 생성을 직접적으로 증가시키지 않습니다. 그러나 일시적으로 피부에 수분을 공급하고 포동포동하여 즉각적인 광채 효과를 제공합니다. 그들의 작용은 대부분 피상적이지만 여전히 부드럽고 단단한 피부에 유용합니다. 오래 지속되는 결과를 위해서는 이러한 마스크를 비타민 C 또는 레티놀과 같은 활성 성분과 연결하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3.508771929824561</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.216374269005848</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2923976608187134</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7309941520467835</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laetitiabm/video/7487982199673867527</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>113</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>습진이 있는 저 같은 사람들에게 더 많은 제품을 추천합니다🫶🏼 습진을 치료하기 위해 이 루틴을 보내주셔서 감사합니다. 아주 좋은 발견입니다🤍 [상업적 협업 제품이 제공되지만 솔직한 리뷰]</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>13.27433628318584</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.61946902654867</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.654867256637168</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.769911504424779</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laetitiabm/video/7487573057394068743</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>127900</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1151</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>58</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>오늘의 작은 팁 💆🏻‍♀️ #haircare #cheveux #cheveuxgras #soincheveux #astucebeauté #astucecheveux</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9139953088350274</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8999218139171228</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01407349491790461</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04534792806880376</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laetitiabm/video/7487257903821245714</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>454</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>honnêtement c’est un des premiers produits qui m’a donné cet aspect “glass skin”, c’est les Pads Soybean Milk de chez @mixsoon_official dispo sur yesstyle si vous voulez tester 🤍 #glasskin #milkpads #koreanskincare #produitscoreensfrance #koreanproducts #mixsoon #yesstyle #tonerpads #routinecoreenne</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4.185022026431718</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.964757709251101</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2202643171806168</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6607929515418502</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7486948027047988488</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>765</v>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Je note les Spa que j’ai testé sur Paris, avez vous testé un de ces spas?🧖🏻‍♀️
-#spa #spaparis #bienetre</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3.267973856209151</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.745098039215686</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.522875816993464</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="B10" t="n">
+        <v>2159</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Je note les Spa que j’ai testé sur Paris, avez vous testé un de ces spas?🧖🏻‍♀️ #spa #spaparis #bienetre #espacebienetre #paris</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2.315886984715146</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.991662806855026</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3242241778601204</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.389532190829088</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7486566382700596488</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B11" t="n">
         <v>971</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C11" t="n">
         <v>37</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>12</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Partie 2 💖 n’hésitez pas à vous abonner ca me ferais enormement plaisir ☺️
 #bonplan #bonplanbeaute</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H11" t="n">
         <v>4.325437693099897</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I11" t="n">
         <v>3.810504634397528</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.5149330587023687</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L11" t="n">
         <v>1.235839340885685</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7486204394749332744</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B12" t="n">
         <v>236900</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C12" t="n">
         <v>5395</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D12" t="n">
         <v>213</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1574</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Et il y en a encore + 💄🫶🏼
 #bonplan #bonplanbeaute #tipsforgirls #bonplanbeauté #beautytok</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H12" t="n">
         <v>2.367243562684677</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I12" t="n">
         <v>2.277332207682567</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.08991135500211059</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L12" t="n">
         <v>0.6644153651329675</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7485458067413421319</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B13" t="n">
         <v>1271</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C13" t="n">
         <v>32</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D13" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>11</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Je vous donne mon avis sur le masque LED rouge : ce ne sont pas des changements flagrants, car ça ne fait qu’un mois, mais j’ai été heureuse de voir qu’il réduit vraiment l’inflammation c’est pourquoi je n’ai pas eu de poussée d’acné</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H13" t="n">
         <v>3.068450039339103</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I13" t="n">
         <v>2.517702596380802</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.5507474429583006</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L13" t="n">
         <v>0.865460267505901</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7484300471713172743</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B14" t="n">
         <v>786</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C14" t="n">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>8</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[Humour] le masque anti-âge NCEF-Revitalize de chez @Laboratoires Filorga est inspiré des procédures esthétiques pour hydrater, repulper et lisser la peau, booster son éclat et rafraîchir le teint ✨</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H14" t="n">
         <v>4.198473282442748</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I14" t="n">
         <v>3.562340966921119</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.6361323155216284</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L14" t="n">
         <v>1.017811704834606</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7483979231915986183</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B15" t="n">
         <v>45500</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>1542</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>26</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>tout le monde jetait à l’intérieur 😭
 #galerieslafayette #luxe #chanel #mode #humour</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H15" t="n">
         <v>3.417582417582417</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I15" t="n">
         <v>3.389010989010989</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.02857142857142857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L15" t="n">
         <v>0.05714285714285715</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7483614626467302674</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B16" t="n">
         <v>52700</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" t="n">
         <v>1658</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" t="n">
         <v>39</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>1088</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[pas une sponso] c’est vraiment les deux produits sans sulfate que j’utilise tout le temps ⭐️
 #cheveux #lissage</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H16" t="n">
         <v>3.22011385199241</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I16" t="n">
         <v>3.146110056925997</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.07400379506641366</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L16" t="n">
         <v>2.064516129032258</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7483192684752948487</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B17" t="n">
         <v>1315</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C17" t="n">
         <v>58</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>25</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>J’ai souvent du mal à tester des nouveaux produits capillaires mais le Elvital était une bonne découverte 🍬</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H17" t="n">
         <v>5.171102661596958</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I17" t="n">
         <v>4.410646387832699</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.7604562737642585</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L17" t="n">
         <v>1.901140684410646</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7481759708831812871</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B18" t="n">
         <v>976</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>48</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>10</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Afin de te débarrasser de ton acné hormonale, il faut adopter une alimentation anti-inflammatoire ❤️ abonne toi pour + de recettes 😊</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H18" t="n">
         <v>4.918032786885246</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I18" t="n">
         <v>4.918032786885246</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1.024590163934426</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7480629013870955794</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B19" t="n">
         <v>14000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C19" t="n">
         <v>212</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D19" t="n">
         <v>38</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Vous en pensez quoi les filles ? L’odeur était inexistante :(
 #rituals #ritualscosmetics #thedreamcollection</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H19" t="n">
         <v>1.785714285714286</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I19" t="n">
         <v>1.514285714285714</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.2714285714285714</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L19" t="n">
         <v>0.04285714285714286</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7480602903430827272</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B20" t="n">
         <v>605</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C20" t="n">
         <v>24</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>quand j’arrive pas à choisir quelle huile à lèvres mettre avant de partir de la maison 😭
 #huilealevres #typology</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H20" t="n">
         <v>4.628099173553719</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I20" t="n">
         <v>3.966942148760331</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.6611570247933884</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L20" t="n">
         <v>0.6611570247933884</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7480283795531255048</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B21" t="n">
         <v>183500</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C21" t="n">
         <v>7069</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D21" t="n">
         <v>82</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>2206</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Pour une fois, je me laisse influencer, et je ne le regrette pas || n’hésitez pas à vous abonnez je donne des avis honnêtes 🫶🏼</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H21" t="n">
         <v>3.89700272479564</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I21" t="n">
         <v>3.852316076294278</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.0446866485013624</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L21" t="n">
         <v>1.202179836512262</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7480196298788900104</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B22" t="n">
         <v>1224</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C22" t="n">
         <v>39</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D22" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>9</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>C’edt le sérum mixsoon à l’acide hyaluronique que j’ai commencé à utiliser y a pas longtemps et que je vous conseille ca tient bien sous le maquillage 💙🩵</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H22" t="n">
         <v>3.431372549019608</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I22" t="n">
         <v>3.186274509803921</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.2450980392156863</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L22" t="n">
         <v>0.7352941176470588</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7479161841793453330</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B23" t="n">
         <v>88100</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C23" t="n">
         <v>2834</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D23" t="n">
         <v>85</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1552</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Une vraie pépite contient également de la caféine pour atténuer les poches 🥑
 #kiehlsfrance #hydratation</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H23" t="n">
         <v>3.313280363223609</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I23" t="n">
         <v>3.216799091940977</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.09648127128263337</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L23" t="n">
         <v>1.761634506242906</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7478799506469817608</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B24" t="n">
         <v>549</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C24" t="n">
         <v>43</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Laisse les gens parler et critiquer, car leurs mots reflètent leurs propres insécurités. Concentre-toi sur ta vérité et avance sans te laisser distraire par leurs jugements 🫶🏼</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H24" t="n">
         <v>8.196721311475409</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I24" t="n">
         <v>7.832422586520947</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.3642987249544626</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L24" t="n">
         <v>0.7285974499089253</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7478398156305075474</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B25" t="n">
         <v>1052</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C25" t="n">
         <v>35</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D25" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>6</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>C’est le Mixsoon Centella Asiatica Toner que je vous conseille pour appaiser votre bouton d’acné 🤍</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H25" t="n">
         <v>3.612167300380228</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I25" t="n">
         <v>3.326996197718631</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.285171102661597</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L25" t="n">
         <v>0.5703422053231939</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7478066512532704530</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B26" t="n">
         <v>2457</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C26" t="n">
         <v>48</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D26" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>petit conseil du soir ⭐️
 #skincareroutine #skincare #conseilskincare #skincaretips</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H26" t="n">
         <v>1.994301994301994</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I26" t="n">
         <v>1.953601953601954</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.0407000407000407</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L26" t="n">
         <v>0.0814000814000814</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7477579798844312840</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B27" t="n">
         <v>951</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C27" t="n">
         <v>54</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>15</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Pour éviter d’aggraver la rosacée, éviter les produits contenant de l’alcool, de l’hamamélis, des parfums, du menthol, de la menthe poivrée, de l’huile d’eucalyptus, les astringents, les exfoliants ect..</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H27" t="n">
         <v>5.678233438485805</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I27" t="n">
         <v>5.678233438485805</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>1.577287066246057</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7477285415301565703</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>1219</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>47</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>7</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>19</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>J’aime bien faire ce genre de vidéo
 #produitsskincare #produitdebeauté #skincare #produitskincare</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>4.429860541427399</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I28" t="n">
         <v>3.855619360131255</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.5742411812961444</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L28" t="n">
         <v>1.558654634946678</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7476944706459536648</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B29" t="n">
         <v>4022</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C29" t="n">
         <v>130</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D29" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>7</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Roaccutane masque les symptômes de l’acné sans traiter ses causes profondes, comme les déséquilibres hormonaux, l’alimentation ou la santé intestinale. En plus de ses nombreux effets secondaires, il ne garantit pas une guérison définitive, et les rechutes sont fréquentes. Plutôt que de camoufler le problème, il est plus efficace de travailler sur l’alimentation, la gestion du stress et l’équilibre hormonal pour traiter l’acné durablement.</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H29" t="n">
         <v>3.331675783192441</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I29" t="n">
         <v>3.232222774738936</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.09945300845350571</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L29" t="n">
         <v>0.174042764793635</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7476809861628579080</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B30" t="n">
         <v>8348</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C30" t="n">
         <v>139</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D30" t="n">
         <v>7</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>44</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Ca lisse la peau, unifie le teint, et réduit les signes de vieillissement par contre la clé c’est de rester consistant!!</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H30" t="n">
         <v>1.74892189746047</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I30" t="n">
         <v>1.665069477719214</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.08385241974125539</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L30" t="n">
         <v>0.5270723526593196</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7476539792176598280</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B31" t="n">
         <v>2204</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C31" t="n">
         <v>41</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D31" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>20</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>La team Yesstyle est généreuse pour ca en vrai 💖
 il y a aussi mon code LBM1010 pour -10% en plus 🍬
 #yesstyle</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>1.90562613430127</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I31" t="n">
         <v>1.860254083484574</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.04537205081669692</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>0.9074410163339384</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7476199636273794322</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B32" t="n">
         <v>2061</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C32" t="n">
         <v>122</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>40</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Il faut changer tes habitudes et cherchrr les causes profondes 🔍
 #skincare #acné #acnéhormonal</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H32" t="n">
         <v>6.16205725376031</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I32" t="n">
         <v>5.919456574478408</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.242600679281902</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L32" t="n">
         <v>1.940805434255216</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7476125778405739784</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>740</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>36</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>9</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>chaque problématique de peau sa solution 🤍
 @URIAGE @Agence Grenadine RP
 #uriage #sérum #skincare</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>5.135135135135135</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>4.864864864864865</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.2702702702702703</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>1.216216216216216</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7475085382003002642</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B34" t="n">
         <v>1241</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C34" t="n">
         <v>49</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D34" t="n">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>19</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Un nouveau bon plan pour vous, au lieu de payer 43€ pour le nouveau masque gisou 💛
 #gisou #gisoumask</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H34" t="n">
         <v>4.27074939564867</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I34" t="n">
         <v>3.94842868654311</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.32232070910556</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L34" t="n">
         <v>1.53102336825141</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7474991029599440136</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B35" t="n">
         <v>23200</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C35" t="n">
         <v>480</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D35" t="n">
         <v>9</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>12</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>c’est trop par contre
 #gisou #gisoumask #gisouproducts #sephora #hairmask</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H35" t="n">
         <v>2.107758620689655</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I35" t="n">
         <v>2.068965517241379</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.03879310344827586</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>0.05172413793103448</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7474340711798738194</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B36" t="n">
         <v>1285</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>72</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D36" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>8</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>j’aime bien c’est pigmenté mais faut faire attention quelle teinte prendre
 #ysl #sephora #SEPHORA #blushes #blush</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H36" t="n">
         <v>5.680933852140078</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I36" t="n">
         <v>5.603112840466927</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.07782101167315175</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L36" t="n">
         <v>0.622568093385214</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7473224173695798535</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B37" t="n">
         <v>1422</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C37" t="n">
         <v>37</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D37" t="n">
         <v>2</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>8</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>La marque c’est Pudaier sur Yesstyle et il y a 12 couleurs disponibles, c’est ma meilleure découverte en ce début d’année ⭐️</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H37" t="n">
         <v>2.742616033755275</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I37" t="n">
         <v>2.60196905766526</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.1406469760900141</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>0.5625879043600562</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7473158220391910664</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B38" t="n">
         <v>1012</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C38" t="n">
         <v>40</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>C’est la nouvelle édition Néroli Orchidée Eau Harmonieuse de la marque @L’Occitane France 🇫🇷 Les produits sentent tellement bons, c’est presque irrésistible !! 🌸🌺🪷</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H38" t="n">
         <v>4.150197628458498</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
         <v>3.952569169960475</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.1976284584980237</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L38" t="n">
         <v>0.2964426877470355</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7472861456527019282</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B39" t="n">
         <v>90300</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C39" t="n">
         <v>6542</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D39" t="n">
         <v>30</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1320</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>le sauna c vrm une pépite cachée
 Abonne toi ☺️🤍
 #skincare #sauna #bienetre #conseilsante #conseilsanté</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H39" t="n">
         <v>7.277962347729789</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I39" t="n">
         <v>7.244739756367663</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.03322259136212625</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L39" t="n">
         <v>1.461794019933555</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7472482505493433608</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B40" t="n">
         <v>1054</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C40" t="n">
         <v>50</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D40" t="n">
         <v>9</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>9</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Les aliments et types de plats qui favorisent l’apparition de lacné 🍬
 #skincare #acné #antiinflammatory</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H40" t="n">
         <v>5.597722960151803</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I40" t="n">
         <v>4.743833017077799</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.8538899430740038</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L40" t="n">
         <v>0.8538899430740038</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7472080635985743111</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B41" t="n">
         <v>4722</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C41" t="n">
         <v>178</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D41" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>77</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>La chanson de cooking mamma pour mettre le mood 😌
 #skincare #acné #antiinflammatory</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H41" t="n">
         <v>3.85429902583651</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I41" t="n">
         <v>3.769589157136807</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.08470986869970351</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L41" t="n">
         <v>1.630664972469293</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7471629679623982343</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B42" t="n">
         <v>29200</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C42" t="n">
         <v>430</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D42" t="n">
         <v>13</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>285</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>La chanson de cooking mamma pour mettre le mood 😌
 #skincare #acné #antiinflammatory</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H42" t="n">
         <v>1.517123287671233</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I42" t="n">
         <v>1.472602739726028</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.04452054794520548</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L42" t="n">
         <v>0.976027397260274</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7470973188269231367</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B43" t="n">
         <v>1205</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C43" t="n">
         <v>70</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>ils font exprès je suis sûre
 #humour #shopping</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H43" t="n">
         <v>5.809128630705394</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I43" t="n">
         <v>5.809128630705394</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.1659751037344398</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7470621421966806280</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B44" t="n">
         <v>51000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C44" t="n">
         <v>555</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D44" t="n">
         <v>18</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>14</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>petit rappel 🤍
 #cheveux #haircare #hairtok #soincheveux</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H44" t="n">
         <v>1.123529411764706</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I44" t="n">
         <v>1.088235294117647</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.03529411764705882</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L44" t="n">
         <v>0.02745098039215686</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7470276964046097671</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B45" t="n">
         <v>6897</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C45" t="n">
         <v>212</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>35</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>🎀🎀
 #skincare #bienetre #girlythings #girlytips #conseilscheveux #conseilskincare</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H45" t="n">
         <v>3.088299260548064</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I45" t="n">
         <v>3.073800202986806</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.01449905756125852</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L45" t="n">
         <v>0.5074670146440481</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7470230924148641042</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B46" t="n">
         <v>1033</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C46" t="n">
         <v>52</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>11</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Vous avez déjà testé une alimentation anti-inflammatoire? 🍬
 #skincare #acné #acne #antiinflammatory</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H46" t="n">
         <v>5.033881897386254</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I46" t="n">
         <v>5.033881897386254</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>1.0648596321394</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/photo/7469850924362534152</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B47" t="n">
         <v>960</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C47" t="n">
         <v>93</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D47" t="n">
         <v>1</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>4</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>oh how I love being a woman ✨
 #girlythings #womanhood
 @Laboratoires Filorga @Clarins Official</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H47" t="n">
         <v>9.791666666666666</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I47" t="n">
         <v>9.6875</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1041666666666667</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L47" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7469026559211408658</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B48" t="n">
         <v>1479</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C48" t="n">
         <v>63</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D48" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>14</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>une crème au zinc et à la niacinamide peut très fortement faire disparaître un bouton en 24H 🧡
 @APRILSKIN USA</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H48" t="n">
         <v>4.462474645030426</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I48" t="n">
         <v>4.259634888438134</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.2028397565922921</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L48" t="n">
         <v>0.9465855307640297</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7468741072856812818</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B49" t="n">
         <v>1273</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C49" t="n">
         <v>58</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D49" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>8</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>une crème au zinc et à la niacinamide peut très fortement faire disparaître un bouton en 24H 🧡
 @APRILSKIN USA</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H49" t="n">
         <v>4.634721131186175</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I49" t="n">
         <v>4.556166535742341</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.07855459544383347</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L49" t="n">
         <v>0.6284367635506678</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7468658652199619847</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B50" t="n">
         <v>1394</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C50" t="n">
         <v>67</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D50" t="n">
         <v>8</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>13</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[avis honnête] j’en ai déjà parlé de ce sérum sur mon compte, c’est ma troisième bouteille que j’entame.
 🔬Pourquoi est-il aussi efficace? Le sérum au glutathion de chez Abib est efficace grâce à sa combinaison de glutathion, puissant antioxydant éclaircissant, et d’extraits de plantes apaisants, comme l’extrait de thé vert, qui unifient le teint et protègent la peau des agressions extérieures.</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H50" t="n">
         <v>5.380200860832137</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I50" t="n">
         <v>4.806312769010043</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.5738880918220948</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L50" t="n">
         <v>0.9325681492109038</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@laetitiabm/video/7468346028849237266</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B51" t="n">
         <v>1547</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C51" t="n">
         <v>85</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D51" t="n">
         <v>6</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Normalement je recois toutes mes commandes mais là c’est la seule que j’ai pas reçu elle a disparu 😭
 #yesstyle</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H51" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I51" t="n">
         <v>5.494505494505495</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.3878474466709761</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L51" t="n">
         <v>0.193923723335488</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laetitiabm/video/7468298903553658119</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C45" t="n">
-        <v>69</v>
-      </c>
-      <c r="D45" t="n">
-        <v>5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>j’ai pas l’habitude de mettre bcp de maquillage ces produits là sont parfaits pour un no makeup makeup look</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6.292517006802721</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.86734693877551</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4251700680272109</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laetitiabm/video/7468262936365124882</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1327</v>
-      </c>
-      <c r="C46" t="n">
-        <v>57</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>11</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>@mixsoon_official
-Le produit est très doux sur la peau contrairement à d’autres exfoliants très agressifs ⭐️</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4.747550866616428</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.295403165033911</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.4521477015825169</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.8289374529012812</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laetitiabm/photo/7467998720617876743</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1291</v>
-      </c>
-      <c r="C47" t="n">
-        <v>45</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>20</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>J’ai regroupé les meilleurs produits/sérums pour les tâches et cicatrices post acné 🤍
-#acnéique #cicatricesacne</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>3.640588690937258</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.4856700232378</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1549186676994578</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.549186676994578</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laetitiabm/video/7467957308132314386</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C48" t="n">
-        <v>30</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>9</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>J’ai regroupé les meilleurs produits/sérums pour les tâches et cicatrices post acné 🤍
-#acnéique #cicatricesacne</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3.018500486854917</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.921129503407984</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.09737098344693282</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.8763388510223954</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laetitiabm/video/7467607267098037511</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>25500</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1415</v>
-      </c>
-      <c r="D49" t="n">
-        <v>75</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>189</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>N’hésitez pas à me follow je partage des bons plans souvent ❤️
-@rabanne unboxing des produits de maquillage iconique que j’ai reçu ⭐️</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5.843137254901961</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.549019607843137</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.7411764705882353</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@laetitiabm/video/7467543257157782802</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1801</v>
-      </c>
-      <c r="C50" t="n">
-        <v>109</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>21</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Une nouvelle crème solaire que j’ajoute dans ma liste de crèmes solaires pref 🤍
-C’est celle de chez @mixsoon_official</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6.107717934480844</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.052193225985564</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.05552470849528041</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.166018878400888</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
         </is>
       </c>
     </row>
